--- a/medicine/Psychotrope/MOCAF/MOCAF.xlsx
+++ b/medicine/Psychotrope/MOCAF/MOCAF.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La brasserie MOCAF (acronyme de « Motte-Cordonnier Afrique »), société agroalimentaire spécialisée dans la fabrication de boissons, est l'entreprise chef de file du secteur industriel de la Centrafrique[1].
+La brasserie MOCAF (acronyme de « Motte-Cordonnier Afrique »), société agroalimentaire spécialisée dans la fabrication de boissons, est l'entreprise chef de file du secteur industriel de la Centrafrique.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Les grandes dates</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1951 : création de la MOCAF par « Brasserie Motte Cordonnier Afrique » par Bertrand Motte.
 1953 : production du premier brassin.
@@ -549,18 +563,91 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Les bières
-Mocaf Export
+          <t>Les bières</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mocaf Export
 Castel Beer
 33 Export
-Pelforth Stout
-Les alcools-mix
-La gamme
+Pelforth Stout</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MOCAF</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/MOCAF</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Produits</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les alcools-mix</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La gamme
 Booster Vodka Pamplemousse
 Booster Whisky Cola
-Booster Rhum Ginger (Nouveau).
-Les boissons gazeuses
-La gamme D'JINO 
+Booster Rhum Ginger (Nouveau).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MOCAF</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/MOCAF</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Produits</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les boissons gazeuses</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La gamme D'JINO 
 D’JINO Ananas
 D’JINO Cocktail de Fruits
 D’JINO Cola
@@ -574,13 +661,115 @@
 TOP Pamplemousse
 TOP Orange
 TOP Mangue
-TOP Coktail
-Les energy drinks
-XXL Energy
-L'eau
-L’Eau Vitale
-Les vins et spiritueux
-La Clé des Châteaux (Magasin)
+TOP Coktail</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MOCAF</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/MOCAF</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Produits</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les energy drinks</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>XXL Energy</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MOCAF</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/MOCAF</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Produits</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>L'eau</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L’Eau Vitale</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MOCAF</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/MOCAF</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Produits</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Les vins et spiritueux</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>La Clé des Châteaux (Magasin)
 Châteaux et Domaines CASTEL
 Maison Castel
 Vins français
